--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\APS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\APS\svn\APM\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
-    <sheet name="AssetInspectionCheckList" sheetId="5" r:id="rId2"/>
+    <sheet name="InspectionCheckList" sheetId="5" r:id="rId2"/>
     <sheet name="InspectionOrder" sheetId="7" r:id="rId3"/>
     <sheet name="InspectionOrderDetail" sheetId="8" r:id="rId4"/>
     <sheet name="PMOrder" sheetId="10" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="361">
   <si>
     <t>供应商名称</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>StepCode</t>
-  </si>
-  <si>
-    <t>对应步骤编号</t>
   </si>
   <si>
     <t>ManHour</t>
@@ -635,15 +632,6 @@
     <t>Department_id</t>
   </si>
   <si>
-    <t>photo_url varchar(60)</t>
-  </si>
-  <si>
-    <t>contact_url varchar(60)</t>
-  </si>
-  <si>
-    <t>user_manual_url varchar(60)</t>
-  </si>
-  <si>
     <t>asset_function_type</t>
   </si>
   <si>
@@ -710,9 +698,6 @@
     <t>work_order_history</t>
   </si>
   <si>
-    <t>Field Ref Code</t>
-  </si>
-  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -755,9 +740,6 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve"> varchar(40)</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -770,9 +752,6 @@
     <t>function_grade</t>
   </si>
   <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
     <t>manufacture</t>
   </si>
   <si>
@@ -788,18 +767,12 @@
     <t>maitanance</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>maitanance_tel</t>
   </si>
   <si>
     <t>serial_num</t>
   </si>
   <si>
-    <t xml:space="preserve"> varchar(60)</t>
-  </si>
-  <si>
     <t>depart_num</t>
   </si>
   <si>
@@ -830,18 +803,6 @@
     <t>owner_org_id</t>
   </si>
   <si>
-    <t>owner_user_id</t>
-  </si>
-  <si>
-    <t>ref to user_account</t>
-  </si>
-  <si>
-    <t>ref to org_info</t>
-  </si>
-  <si>
-    <t>owner_user_tel</t>
-  </si>
-  <si>
     <t>is_valid</t>
   </si>
   <si>
@@ -890,9 +851,6 @@
     <t>file_url</t>
   </si>
   <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -923,12 +881,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>FK: user_account</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -995,9 +947,6 @@
     <t>procedure_name</t>
   </si>
   <si>
-    <t>procedure_id int</t>
-  </si>
-  <si>
     <t>modality_type</t>
   </si>
   <si>
@@ -1028,9 +977,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
     <t>update_time</t>
   </si>
   <si>
@@ -1079,9 +1025,6 @@
     <t>current_person</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar(60) </t>
-  </si>
-  <si>
     <t>dept_id</t>
   </si>
   <si>
@@ -1089,13 +1032,115 @@
   </si>
   <si>
     <t>is_passed</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(64)</t>
+  </si>
+  <si>
+    <t>photo_url varchar(64)</t>
+  </si>
+  <si>
+    <t>contact_url varchar(64)</t>
+  </si>
+  <si>
+    <t>user_manual_url varchar(64)</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(64) </t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>modality_type_id</t>
+  </si>
+  <si>
+    <t>procedure_id</t>
+  </si>
+  <si>
+    <t>asset_org_id</t>
+  </si>
+  <si>
+    <t>asset_owner_id</t>
+  </si>
+  <si>
+    <t>asset_owner_tel</t>
+  </si>
+  <si>
+    <t>org_info</t>
+  </si>
+  <si>
+    <r>
+      <t>执行人所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厂商??</t>
+    </r>
+  </si>
+  <si>
+    <t>user_account</t>
+  </si>
+  <si>
+    <t>site_info</t>
+  </si>
+  <si>
+    <t>paper_url</t>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>is_finished</t>
+  </si>
+  <si>
+    <t>Ref Code</t>
+  </si>
+  <si>
+    <t>inspection_item</t>
+  </si>
+  <si>
+    <t>owner_org</t>
+  </si>
+  <si>
+    <t>next_time</t>
+  </si>
+  <si>
+    <t>report_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(128) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(256) </t>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+  </si>
+  <si>
+    <t>对应工单步骤编号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1152,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1132,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1141,12 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,13 +1283,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>478631</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>465730</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>75533</xdr:rowOff>
@@ -1572,424 +1619,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" t="s">
         <v>165</v>
       </c>
-      <c r="C16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>196</v>
       </c>
-      <c r="C23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
-      </c>
-      <c r="G26" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="H26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H27" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1997,21 +2054,21 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
-      </c>
-      <c r="G28" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2019,24 +2076,24 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H29" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2044,27 +2101,27 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2072,9 +2129,9 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J31" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2082,21 +2139,21 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2104,21 +2161,21 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2126,21 +2183,21 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2148,21 +2205,21 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2170,21 +2227,21 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2192,21 +2249,21 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2214,21 +2271,21 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2236,9 +2293,9 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J39" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2246,21 +2303,21 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G40" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2268,21 +2325,21 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
-      </c>
-      <c r="G41" t="s">
-        <v>170</v>
-      </c>
-      <c r="J41" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="H41" t="s">
+        <v>169</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2290,21 +2347,21 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="H42" t="s">
+        <v>170</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2312,24 +2369,24 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
-      </c>
-      <c r="F43" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -2337,9 +2394,9 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J44" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -2347,9 +2404,9 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J45" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -2357,17 +2414,18 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="J46" s="3"/>
+      <c r="F46" s="1"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -2375,18 +2433,18 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
-      </c>
-      <c r="J47" s="3"/>
+        <v>229</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -2394,18 +2452,18 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" s="3"/>
+        <v>229</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -2413,18 +2471,18 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
-      </c>
-      <c r="J49" s="3"/>
+        <v>229</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -2432,21 +2490,21 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2454,18 +2512,18 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
-      </c>
-      <c r="J51" s="3"/>
+        <v>229</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2473,9 +2531,9 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J52" s="3"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2483,18 +2541,18 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="G53" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" t="s">
         <v>55</v>
       </c>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2502,18 +2560,18 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" t="s">
         <v>56</v>
       </c>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2521,21 +2579,22 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" t="s">
+        <v>335</v>
+      </c>
+      <c r="H55" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J25:Q54"/>
+    <mergeCell ref="K25:R54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2545,350 +2604,367 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" t="s">
         <v>285</v>
       </c>
-      <c r="D5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" t="s">
-        <v>234</v>
+      <c r="D28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2898,172 +2974,179 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3074,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,92 +3168,103 @@
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3181,358 +3275,419 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="H10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3543,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3554,169 +3709,255 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" t="s">
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="G13" t="s">
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" t="s">
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>102</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3727,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,372 +3979,394 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
-      </c>
-      <c r="G13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" t="s">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="G14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="G15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
-      </c>
-      <c r="G24" t="s">
+        <v>350</v>
+      </c>
+      <c r="H24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4114,137 +4377,145 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4255,174 +4526,195 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4432,160 +4724,153 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>232</v>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>157</v>
       </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" t="s">
         <v>158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="357">
   <si>
     <t>供应商名称</t>
   </si>
@@ -195,24 +195,6 @@
     <t>购买日期</t>
   </si>
   <si>
-    <t>PhotoUrl</t>
-  </si>
-  <si>
-    <t>ContractUrl</t>
-  </si>
-  <si>
-    <t>照片</t>
-  </si>
-  <si>
-    <t>合同</t>
-  </si>
-  <si>
-    <t>UserManualUrl</t>
-  </si>
-  <si>
-    <t>用户手册</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -421,9 +403,6 @@
   </si>
   <si>
     <t>CurrentStep</t>
-  </si>
-  <si>
-    <t>当前处理步骤</t>
   </si>
   <si>
     <t>Closed</t>
@@ -1038,15 +1017,6 @@
   </si>
   <si>
     <t xml:space="preserve"> varchar(64)</t>
-  </si>
-  <si>
-    <t>photo_url varchar(64)</t>
-  </si>
-  <si>
-    <t>contact_url varchar(64)</t>
-  </si>
-  <si>
-    <t>user_manual_url varchar(64)</t>
   </si>
   <si>
     <t>varchar(32)</t>
@@ -1112,9 +1082,6 @@
     <t>Ref Code</t>
   </si>
   <si>
-    <t>inspection_item</t>
-  </si>
-  <si>
     <t>owner_org</t>
   </si>
   <si>
@@ -1134,6 +1101,27 @@
   </si>
   <si>
     <t>对应工单步骤编号</t>
+  </si>
+  <si>
+    <t>inspection_order_id</t>
+  </si>
+  <si>
+    <t>creator_name</t>
+  </si>
+  <si>
+    <t>当前处理步骤(报修/确认/派工…)</t>
+  </si>
+  <si>
+    <t>confirmed_start_time</t>
+  </si>
+  <si>
+    <t>confirmed_end_time</t>
+  </si>
+  <si>
+    <t>确认的停机时间</t>
+  </si>
+  <si>
+    <t>确认的恢复可用时间</t>
   </si>
 </sst>
 </file>
@@ -1187,13 +1175,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,39 +1621,39 @@
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1677,13 +1665,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1691,16 +1679,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1708,13 +1696,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1725,13 +1713,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,13 +1727,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -1756,13 +1744,13 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1773,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -1790,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -1804,10 +1792,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1815,41 +1803,41 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1857,27 +1845,27 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -1888,10 +1876,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1899,16 +1887,16 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -1916,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1930,10 +1918,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -1941,656 +1929,627 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H38" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D40" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>170</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>229</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>333</v>
-      </c>
-      <c r="H53" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>334</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>335</v>
-      </c>
-      <c r="H55" t="s">
-        <v>58</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2606,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,35 +2576,35 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2653,75 +2612,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2729,242 +2688,242 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2987,35 +2946,35 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3023,44 +2982,44 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3068,13 +3027,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -3085,10 +3044,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -3099,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3113,10 +3072,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -3127,10 +3086,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3141,10 +3100,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -3160,7 +3119,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3171,35 +3130,35 @@
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3208,64 +3167,64 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3237,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,35 +3250,35 @@
     <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3328,47 +3287,47 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3376,163 +3335,163 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3546,46 +3505,46 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3594,101 +3553,98 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3698,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3712,35 +3668,35 @@
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3749,41 +3705,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3791,174 +3747,185 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" t="s">
-        <v>347</v>
+        <v>272</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>335</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3968,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3982,35 +3949,35 @@
     <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4018,41 +3985,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4060,314 +4027,336 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4369,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4392,35 +4381,35 @@
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4428,95 +4417,95 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4518,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4539,35 +4528,35 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4575,146 +4564,146 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4716,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4738,35 +4727,35 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>222</v>
+      <c r="F1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4774,103 +4763,103 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="372">
   <si>
     <t>供应商名称</t>
   </si>
@@ -773,9 +773,6 @@
     <t>hospital_id</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
     <t>所属设备科</t>
   </si>
   <si>
@@ -839,12 +836,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -941,9 +932,6 @@
     <t>man_hours</t>
   </si>
   <si>
-    <t>step_id int</t>
-  </si>
-  <si>
     <t>work_order_id</t>
   </si>
   <si>
@@ -962,18 +950,12 @@
     <t>update_detail</t>
   </si>
   <si>
-    <t>requestor</t>
-  </si>
-  <si>
     <t>request_time</t>
   </si>
   <si>
     <t>request_reason</t>
   </si>
   <si>
-    <t>case_owner</t>
-  </si>
-  <si>
     <t>case_type</t>
   </si>
   <si>
@@ -1001,9 +983,6 @@
     <t>current_step</t>
   </si>
   <si>
-    <t>current_person</t>
-  </si>
-  <si>
     <t>dept_id</t>
   </si>
   <si>
@@ -1035,9 +1014,6 @@
   </si>
   <si>
     <t>procedure_id</t>
-  </si>
-  <si>
-    <t>asset_org_id</t>
   </si>
   <si>
     <t>asset_owner_id</t>
@@ -1082,9 +1058,6 @@
     <t>Ref Code</t>
   </si>
   <si>
-    <t>owner_org</t>
-  </si>
-  <si>
     <t>next_time</t>
   </si>
   <si>
@@ -1103,9 +1076,6 @@
     <t>对应工单步骤编号</t>
   </si>
   <si>
-    <t>inspection_order_id</t>
-  </si>
-  <si>
     <t>creator_name</t>
   </si>
   <si>
@@ -1122,6 +1092,81 @@
   </si>
   <si>
     <t>确认的恢复可用时间</t>
+  </si>
+  <si>
+    <t>asset_owner_name</t>
+  </si>
+  <si>
+    <t>user_account.name</t>
+  </si>
+  <si>
+    <t>owner_name</t>
+  </si>
+  <si>
+    <t>owner_org_name</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>org_info.name</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>case_owner_id</t>
+  </si>
+  <si>
+    <t>case_owner_name</t>
+  </si>
+  <si>
+    <t>requestor_id</t>
+  </si>
+  <si>
+    <t>requestor_name</t>
+  </si>
+  <si>
+    <t>current_person_id</t>
+  </si>
+  <si>
+    <t>current_person_name</t>
+  </si>
+  <si>
+    <t>update_person_id</t>
+  </si>
+  <si>
+    <t>update_person_name</t>
+  </si>
+  <si>
+    <t>user_account.id</t>
+  </si>
+  <si>
+    <t>变更人</t>
+  </si>
+  <si>
+    <t>step_id</t>
+  </si>
+  <si>
+    <t>asset_dept_id</t>
+  </si>
+  <si>
+    <t>clinical_dept_id</t>
+  </si>
+  <si>
+    <t>clinical_dept_name</t>
+  </si>
+  <si>
+    <t>inspection_checklist</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,10 +1687,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -1688,7 +1733,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1699,7 +1744,7 @@
         <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
         <v>222</v>
@@ -1716,7 +1761,7 @@
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
@@ -1781,7 +1826,7 @@
         <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -1795,7 +1840,7 @@
         <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1809,7 +1854,7 @@
         <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
         <v>67</v>
@@ -1823,7 +1868,7 @@
         <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -1837,7 +1882,7 @@
         <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1851,7 +1896,7 @@
         <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H16" t="s">
         <v>158</v>
@@ -1865,7 +1910,7 @@
         <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -1879,7 +1924,7 @@
         <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1893,7 +1938,7 @@
         <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
         <v>156</v>
@@ -1907,7 +1952,7 @@
         <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1921,7 +1966,7 @@
         <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -1941,7 +1986,7 @@
         <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H23" t="s">
         <v>159</v>
@@ -1952,62 +1997,51 @@
         <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="D24" t="s">
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>218</v>
       </c>
-      <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
         <v>193</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" t="s">
-        <v>335</v>
-      </c>
-      <c r="H26" t="s">
-        <v>245</v>
-      </c>
-      <c r="K26" s="3"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2017,11 +2051,8 @@
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="D27" t="s">
         <v>231</v>
@@ -2030,12 +2061,12 @@
         <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2046,16 +2077,22 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>231</v>
+      </c>
+      <c r="E28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" t="s">
+        <v>329</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2068,19 +2105,22 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="E29" t="s">
         <v>222</v>
       </c>
+      <c r="F29" t="s">
+        <v>348</v>
+      </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2093,22 +2133,16 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2120,6 +2154,21 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2131,16 +2180,22 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>231</v>
+      </c>
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2152,18 +2207,6 @@
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2175,16 +2218,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2197,16 +2240,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2219,16 +2262,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2241,16 +2284,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2263,16 +2306,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2284,6 +2327,18 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2295,16 +2350,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2316,18 +2371,6 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" t="s">
-        <v>162</v>
-      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2339,16 +2382,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2361,19 +2404,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G43" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2385,6 +2425,18 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2395,6 +2447,21 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2405,15 +2472,6 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2424,15 +2482,6 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" t="s">
-        <v>222</v>
-      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -2443,15 +2492,15 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" t="s">
-        <v>222</v>
-      </c>
+      <c r="A48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2463,10 +2512,10 @@
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
         <v>222</v>
@@ -2482,16 +2531,13 @@
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
         <v>222</v>
-      </c>
-      <c r="G50" t="s">
-        <v>199</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2504,10 +2550,10 @@
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E51" t="s">
         <v>222</v>
@@ -2522,6 +2568,18 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" t="s">
+        <v>199</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -2532,6 +2590,15 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -2551,9 +2618,29 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K25:R54"/>
+    <mergeCell ref="K26:R56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2565,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2593,10 +2680,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -2632,7 +2719,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,7 +2727,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -2666,7 +2753,7 @@
         <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2674,7 +2761,7 @@
         <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
         <v>231</v>
@@ -2688,10 +2775,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>222</v>
@@ -2699,7 +2786,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
         <v>231</v>
@@ -2713,10 +2800,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
         <v>222</v>
@@ -2727,7 +2814,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
         <v>231</v>
@@ -2741,10 +2828,10 @@
         <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
         <v>222</v>
@@ -2758,10 +2845,10 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" t="s">
         <v>168</v>
@@ -2772,7 +2859,7 @@
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" t="s">
         <v>231</v>
@@ -2786,10 +2873,10 @@
         <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H16" t="s">
         <v>180</v>
@@ -2800,10 +2887,10 @@
         <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -2811,10 +2898,10 @@
         <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -2822,10 +2909,10 @@
         <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -2833,7 +2920,7 @@
         <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>231</v>
@@ -2844,10 +2931,10 @@
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
         <v>177</v>
@@ -2858,10 +2945,10 @@
         <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H23" t="s">
         <v>178</v>
@@ -2872,7 +2959,7 @@
         <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
         <v>231</v>
@@ -2886,10 +2973,10 @@
         <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
         <v>222</v>
@@ -2903,10 +2990,10 @@
         <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
         <v>222</v>
@@ -2917,10 +3004,10 @@
         <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -2936,7 +3023,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,10 +3050,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -3002,7 +3089,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3010,7 +3097,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -3030,7 +3117,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -3044,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -3058,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3072,10 +3159,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -3086,10 +3173,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3103,7 +3190,7 @@
         <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -3119,7 +3206,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3127,6 +3214,7 @@
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3147,10 +3235,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -3158,7 +3246,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3187,7 +3275,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3195,7 +3283,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -3215,10 +3303,10 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -3234,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,10 +3355,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -3307,7 +3395,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3315,7 +3403,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -3338,7 +3426,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -3352,13 +3440,16 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>329</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -3369,13 +3460,16 @@
         <v>104</v>
       </c>
       <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
         <v>269</v>
       </c>
-      <c r="D8" t="s">
-        <v>272</v>
-      </c>
       <c r="E8" t="s">
         <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
@@ -3386,7 +3480,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
         <v>231</v>
@@ -3395,7 +3489,7 @@
         <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
@@ -3403,94 +3497,134 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
         <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>317</v>
+      </c>
+      <c r="E12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" t="s">
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3502,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3533,10 +3667,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -3573,12 +3707,12 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -3595,7 +3729,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>231</v>
@@ -3604,7 +3738,7 @@
         <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
         <v>89</v>
@@ -3612,10 +3746,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
         <v>231</v>
@@ -3624,26 +3758,66 @@
         <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3654,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3685,10 +3859,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -3725,12 +3899,12 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -3750,7 +3924,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -3764,7 +3938,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
         <v>231</v>
@@ -3773,7 +3947,7 @@
         <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -3781,13 +3955,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3795,10 +3972,10 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
         <v>269</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
       </c>
       <c r="E9" t="s">
         <v>222</v>
@@ -3812,119 +3989,147 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D10" t="s">
         <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>317</v>
+      </c>
+      <c r="F13" t="s">
+        <v>327</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>247</v>
+      </c>
+      <c r="E16" t="s">
+        <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" t="s">
-        <v>346</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3935,16 +4140,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3966,10 +4171,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -4005,12 +4210,12 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -4030,7 +4235,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -4044,7 +4249,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
         <v>231</v>
@@ -4053,183 +4258,188 @@
         <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>222</v>
       </c>
-      <c r="H8" t="s">
-        <v>78</v>
+      <c r="F8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
         <v>222</v>
       </c>
-      <c r="F9" t="s">
-        <v>337</v>
-      </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" t="s">
-        <v>311</v>
-      </c>
-      <c r="H14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
         <v>231</v>
       </c>
-      <c r="E15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" t="s">
-        <v>313</v>
+      <c r="F15" t="s">
+        <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" t="s">
-        <v>312</v>
+        <v>322</v>
+      </c>
+      <c r="F16" t="s">
+        <v>348</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E17" t="s">
         <v>222</v>
       </c>
+      <c r="G17" t="s">
+        <v>305</v>
+      </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
         <v>231</v>
@@ -4237,126 +4447,174 @@
       <c r="E19" t="s">
         <v>222</v>
       </c>
-      <c r="F19" t="s">
-        <v>337</v>
+      <c r="G19" t="s">
+        <v>306</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>222</v>
       </c>
-      <c r="G20" t="s">
-        <v>208</v>
-      </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
         <v>222</v>
       </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
-      </c>
-      <c r="H23" t="s">
-        <v>127</v>
+        <v>322</v>
+      </c>
+      <c r="F23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>208</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>247</v>
+      </c>
+      <c r="E26" t="s">
+        <v>222</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>142</v>
       </c>
-      <c r="C27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D27" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" t="s">
-        <v>356</v>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4366,16 +4624,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
@@ -4398,10 +4656,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -4437,12 +4695,12 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -4459,7 +4717,7 @@
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
         <v>231</v>
@@ -4475,36 +4733,70 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4515,10 +4807,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4545,10 +4837,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -4584,7 +4876,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4592,7 +4884,7 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -4612,10 +4904,10 @@
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>222</v>
@@ -4629,7 +4921,7 @@
         <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
         <v>231</v>
@@ -4638,71 +4930,85 @@
         <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>222</v>
       </c>
-      <c r="H8" t="s">
-        <v>136</v>
+      <c r="F8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
         <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>269</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4716,7 +5022,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4744,10 +5050,10 @@
         <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>215</v>
@@ -4783,7 +5089,7 @@
         <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4791,7 +5097,7 @@
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
         <v>231</v>
@@ -4803,7 +5109,7 @@
         <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4811,7 +5117,7 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
         <v>231</v>
@@ -4825,7 +5131,7 @@
         <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
         <v>233</v>
@@ -4839,7 +5145,7 @@
         <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
         <v>231</v>
@@ -4853,10 +5159,10 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
         <v>151</v>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -23,7 +23,11 @@
     <sheet name="WorkOrderStepDetail" sheetId="13" r:id="rId9"/>
     <sheet name="AssetClinicalRecord" sheetId="4" r:id="rId10"/>
     <sheet name="Supplier(备用)" sheetId="3" r:id="rId11"/>
+    <sheet name="AllFieldList" sheetId="14" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">AllFieldList!$C$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="640">
   <si>
     <t>供应商名称</t>
   </si>
@@ -539,9 +543,6 @@
     <t>ProcedureStepName</t>
   </si>
   <si>
-    <t>检查步骤名称</t>
-  </si>
-  <si>
     <t>PriceAmount</t>
   </si>
   <si>
@@ -656,12 +657,6 @@
     <t>asset_clinical_record</t>
   </si>
   <si>
-    <t>检查部位ID</t>
-  </si>
-  <si>
-    <t>检查部位名称</t>
-  </si>
-  <si>
     <t>work_order_step_detail</t>
   </si>
   <si>
@@ -695,9 +690,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -717,9 +709,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>alias</t>
   </si>
   <si>
     <t>function_group</t>
@@ -1167,6 +1156,837 @@
   </si>
   <si>
     <t>inspection_checklist</t>
+  </si>
+  <si>
+    <t>alias_name</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>检查步骤</t>
+  </si>
+  <si>
+    <t>检查部位</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>检查日期</t>
+  </si>
+  <si>
+    <r>
+      <t>执行人所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>Accessory Price</t>
+  </si>
+  <si>
+    <t>Accessory Quantity</t>
+  </si>
+  <si>
+    <t>Alias Name</t>
+  </si>
+  <si>
+    <t>Arrive Date</t>
+  </si>
+  <si>
+    <t>Asset Dept Id</t>
+  </si>
+  <si>
+    <t>Asset Group</t>
+  </si>
+  <si>
+    <t>Asset Id</t>
+  </si>
+  <si>
+    <t>Asset Owner Id</t>
+  </si>
+  <si>
+    <t>Asset Owner Name</t>
+  </si>
+  <si>
+    <t>Asset Owner Tel</t>
+  </si>
+  <si>
+    <t>Attachment Url</t>
+  </si>
+  <si>
+    <t>Case Owner Id</t>
+  </si>
+  <si>
+    <t>Case Owner Name</t>
+  </si>
+  <si>
+    <t>Case Priority</t>
+  </si>
+  <si>
+    <t>Case Sub Type</t>
+  </si>
+  <si>
+    <t>Case Type</t>
+  </si>
+  <si>
+    <t>Clinical Dept Id</t>
+  </si>
+  <si>
+    <t>Clinical Dept Name</t>
+  </si>
+  <si>
+    <t>Close Reason</t>
+  </si>
+  <si>
+    <t>Confirmed End Time</t>
+  </si>
+  <si>
+    <t>Confirmed Start Time</t>
+  </si>
+  <si>
+    <t>Create Time</t>
+  </si>
+  <si>
+    <t>Creator Id</t>
+  </si>
+  <si>
+    <t>Creator Name</t>
+  </si>
+  <si>
+    <t>Current Person Id</t>
+  </si>
+  <si>
+    <t>Current Person Name</t>
+  </si>
+  <si>
+    <t>Current Step</t>
+  </si>
+  <si>
+    <t>Depart Num</t>
+  </si>
+  <si>
+    <t>Depreciation Method</t>
+  </si>
+  <si>
+    <t>Dept Id</t>
+  </si>
+  <si>
+    <t>Dept Name</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Exam Date</t>
+  </si>
+  <si>
+    <t>Exam End Time</t>
+  </si>
+  <si>
+    <t>Exam Start Time</t>
+  </si>
+  <si>
+    <t>Expose Count</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>File Url</t>
+  </si>
+  <si>
+    <t>Film Count</t>
+  </si>
+  <si>
+    <t>Financing Num</t>
+  </si>
+  <si>
+    <t>Function Grade</t>
+  </si>
+  <si>
+    <t>Function Group</t>
+  </si>
+  <si>
+    <t>Function Type</t>
+  </si>
+  <si>
+    <t>Hospital Id</t>
+  </si>
+  <si>
+    <t>Inject Count</t>
+  </si>
+  <si>
+    <t>Install Date</t>
+  </si>
+  <si>
+    <t>Is Closed</t>
+  </si>
+  <si>
+    <t>Is Finished</t>
+  </si>
+  <si>
+    <t>Is Internal</t>
+  </si>
+  <si>
+    <t>Is Passed</t>
+  </si>
+  <si>
+    <t>Is Valid</t>
+  </si>
+  <si>
+    <t>Item Id</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Location Code</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Maitanance Tel</t>
+  </si>
+  <si>
+    <t>Man Hours</t>
+  </si>
+  <si>
+    <t>Manufact Date</t>
+  </si>
+  <si>
+    <t>Modality Id</t>
+  </si>
+  <si>
+    <t>Modality Type</t>
+  </si>
+  <si>
+    <t>Modality Type Id</t>
+  </si>
+  <si>
+    <t>Next Time</t>
+  </si>
+  <si>
+    <t>Owner Id</t>
+  </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
+  <si>
+    <t>Owner Org Id</t>
+  </si>
+  <si>
+    <t>Owner Org Name</t>
+  </si>
+  <si>
+    <t>Paper Url</t>
+  </si>
+  <si>
+    <t>Patient Age</t>
+  </si>
+  <si>
+    <t>Patient Gender</t>
+  </si>
+  <si>
+    <t>Patient Id</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Plan Date</t>
+  </si>
+  <si>
+    <t>Price Amount</t>
+  </si>
+  <si>
+    <t>Price Unit</t>
+  </si>
+  <si>
+    <t>Procedure Id</t>
+  </si>
+  <si>
+    <t>Procedure Name</t>
+  </si>
+  <si>
+    <t>Procedure Step Id</t>
+  </si>
+  <si>
+    <t>Procedure Step Name</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>Report Url</t>
+  </si>
+  <si>
+    <t>Request Reason</t>
+  </si>
+  <si>
+    <t>Request Time</t>
+  </si>
+  <si>
+    <t>Requestor Id</t>
+  </si>
+  <si>
+    <t>Requestor Name</t>
+  </si>
+  <si>
+    <t>Salvage Value</t>
+  </si>
+  <si>
+    <t>Serial Num</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Terminate Date</t>
+  </si>
+  <si>
+    <t>Total Man Hour</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Update Detail</t>
+  </si>
+  <si>
+    <t>Update Person Id</t>
+  </si>
+  <si>
+    <t>Update Person Name</t>
+  </si>
+  <si>
+    <t>Update Time</t>
+  </si>
+  <si>
+    <t>Warranty Date</t>
+  </si>
+  <si>
+    <t>折旧算法</t>
+  </si>
+  <si>
+    <t>当前处理步骤</t>
+  </si>
+  <si>
+    <t>accessoryPrice</t>
+  </si>
+  <si>
+    <t>accessoryQuantity</t>
+  </si>
+  <si>
+    <t>aliasName</t>
+  </si>
+  <si>
+    <t>arriveDate</t>
+  </si>
+  <si>
+    <t>assetDeptId</t>
+  </si>
+  <si>
+    <t>assetGroup</t>
+  </si>
+  <si>
+    <t>assetId</t>
+  </si>
+  <si>
+    <t>assetOwnerId</t>
+  </si>
+  <si>
+    <t>assetOwnerName</t>
+  </si>
+  <si>
+    <t>assetOwnerTel</t>
+  </si>
+  <si>
+    <t>attachmentUrl</t>
+  </si>
+  <si>
+    <t>caseOwnerId</t>
+  </si>
+  <si>
+    <t>caseOwnerName</t>
+  </si>
+  <si>
+    <t>casePriority</t>
+  </si>
+  <si>
+    <t>caseSubType</t>
+  </si>
+  <si>
+    <t>caseType</t>
+  </si>
+  <si>
+    <t>clinicalDeptId</t>
+  </si>
+  <si>
+    <t>clinicalDeptName</t>
+  </si>
+  <si>
+    <t>closeReason</t>
+  </si>
+  <si>
+    <t>confirmedEndTime</t>
+  </si>
+  <si>
+    <t>confirmedStartTime</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>creatorId</t>
+  </si>
+  <si>
+    <t>creatorName</t>
+  </si>
+  <si>
+    <t>currentPersonId</t>
+  </si>
+  <si>
+    <t>currentPersonName</t>
+  </si>
+  <si>
+    <t>currentStep</t>
+  </si>
+  <si>
+    <t>departNum</t>
+  </si>
+  <si>
+    <t>depreciationMethod</t>
+  </si>
+  <si>
+    <t>deptId</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>examDate</t>
+  </si>
+  <si>
+    <t>examEndTime</t>
+  </si>
+  <si>
+    <t>examStartTime</t>
+  </si>
+  <si>
+    <t>exposeCount</t>
+  </si>
+  <si>
+    <t>fileType</t>
+  </si>
+  <si>
+    <t>fileUrl</t>
+  </si>
+  <si>
+    <t>filmCount</t>
+  </si>
+  <si>
+    <t>financingNum</t>
+  </si>
+  <si>
+    <t>functionGrade</t>
+  </si>
+  <si>
+    <t>functionGroup</t>
+  </si>
+  <si>
+    <t>functionType</t>
+  </si>
+  <si>
+    <t>hospitalId</t>
+  </si>
+  <si>
+    <t>injectCount</t>
+  </si>
+  <si>
+    <t>installDate</t>
+  </si>
+  <si>
+    <t>isClosed</t>
+  </si>
+  <si>
+    <t>isFinished</t>
+  </si>
+  <si>
+    <t>isPassed</t>
+  </si>
+  <si>
+    <t>isValid</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>locationCode</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>maitananceTel</t>
+  </si>
+  <si>
+    <t>manHours</t>
+  </si>
+  <si>
+    <t>manufactDate</t>
+  </si>
+  <si>
+    <t>modalityId</t>
+  </si>
+  <si>
+    <t>modalityType</t>
+  </si>
+  <si>
+    <t>modalityTypeId</t>
+  </si>
+  <si>
+    <t>nextTime</t>
+  </si>
+  <si>
+    <t>ownerId</t>
+  </si>
+  <si>
+    <t>ownerName</t>
+  </si>
+  <si>
+    <t>ownerOrgId</t>
+  </si>
+  <si>
+    <t>ownerOrgName</t>
+  </si>
+  <si>
+    <t>paperUrl</t>
+  </si>
+  <si>
+    <t>patientAge</t>
+  </si>
+  <si>
+    <t>patientGender</t>
+  </si>
+  <si>
+    <t>patientId</t>
+  </si>
+  <si>
+    <t>patientNameEn</t>
+  </si>
+  <si>
+    <t>patientNameZh</t>
+  </si>
+  <si>
+    <t>planDate</t>
+  </si>
+  <si>
+    <t>priceAmount</t>
+  </si>
+  <si>
+    <t>priceUnit</t>
+  </si>
+  <si>
+    <t>procedureId</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureStepId</t>
+  </si>
+  <si>
+    <t>procedureStepName</t>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+  </si>
+  <si>
+    <t>purchasePrice</t>
+  </si>
+  <si>
+    <t>reportUrl</t>
+  </si>
+  <si>
+    <t>requestReason</t>
+  </si>
+  <si>
+    <t>requestTime</t>
+  </si>
+  <si>
+    <t>requestorId</t>
+  </si>
+  <si>
+    <t>requestorName</t>
+  </si>
+  <si>
+    <t>salvageValue</t>
+  </si>
+  <si>
+    <t>serialNum</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>stepName</t>
+  </si>
+  <si>
+    <t>terminateDate</t>
+  </si>
+  <si>
+    <t>totalManHour</t>
+  </si>
+  <si>
+    <t>totalPrice</t>
+  </si>
+  <si>
+    <t>updateDetail</t>
+  </si>
+  <si>
+    <t>updatePersonId</t>
+  </si>
+  <si>
+    <t>updatePersonName</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>warrantyDate</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>contactPerson</t>
+  </si>
+  <si>
+    <t>contactPhone</t>
+  </si>
+  <si>
+    <t>defaultLang</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>isEnabled</t>
+  </si>
+  <si>
+    <t>isLocalAdmin</t>
+  </si>
+  <si>
+    <t>isOnline</t>
+  </si>
+  <si>
+    <t>isSiteAdmin</t>
+  </si>
+  <si>
+    <t>isSuperAdmin</t>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+  </si>
+  <si>
+    <t>locationEn</t>
+  </si>
+  <si>
+    <t>nameEn</t>
+  </si>
+  <si>
+    <t>orgId</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>roleDesc</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>timeZone</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Contact Phone</t>
+  </si>
+  <si>
+    <t>Default Lang</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Last Login Time</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location En</t>
+  </si>
+  <si>
+    <t>Name En</t>
+  </si>
+  <si>
+    <t>Org Id</t>
+  </si>
+  <si>
+    <t>Parent Id</t>
+  </si>
+  <si>
+    <t>Role Desc</t>
+  </si>
+  <si>
+    <t>Role Id</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>默认语言</t>
+  </si>
+  <si>
+    <t>默认首页</t>
+  </si>
+  <si>
+    <t>本院管理员</t>
+  </si>
+  <si>
+    <t>在线?</t>
+  </si>
+  <si>
+    <t>激活?</t>
+  </si>
+  <si>
+    <t>启用?</t>
+  </si>
+  <si>
+    <t>Active?</t>
+  </si>
+  <si>
+    <t>Enabled?</t>
+  </si>
+  <si>
+    <t>Local Admin?</t>
+  </si>
+  <si>
+    <t>Online?</t>
+  </si>
+  <si>
+    <t>Site Admin?</t>
+  </si>
+  <si>
+    <t>Super Admin?</t>
+  </si>
+  <si>
+    <t>超级管理员?</t>
+  </si>
+  <si>
+    <t>Site管理员?</t>
+  </si>
+  <si>
+    <t>上次登录时间</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>名称(En)</t>
+  </si>
+  <si>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>上级部门</t>
+  </si>
+  <si>
+    <t>角色描述</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>时区</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,33 +2492,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1710,13 +2530,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1724,16 +2544,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1741,13 +2561,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1758,10 +2578,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
@@ -1772,13 +2592,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -1789,13 +2609,13 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1806,13 +2626,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -1823,10 +2643,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -1837,10 +2657,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1851,10 +2671,10 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H12" t="s">
         <v>67</v>
@@ -1865,10 +2685,10 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -1879,10 +2699,10 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1893,10 +2713,10 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H16" t="s">
         <v>158</v>
@@ -1907,10 +2727,10 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -1921,10 +2741,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1935,10 +2755,10 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H19" t="s">
         <v>156</v>
@@ -1949,10 +2769,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1963,10 +2783,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -1974,19 +2794,19 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H23" t="s">
         <v>159</v>
@@ -1994,16 +2814,16 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -2011,13 +2831,13 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
         <v>54</v>
@@ -2028,13 +2848,13 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
         <v>65</v>
@@ -2052,19 +2872,19 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
@@ -2080,16 +2900,16 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -2108,16 +2928,16 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2136,10 +2956,10 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2158,13 +2978,13 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
         <v>75</v>
@@ -2183,16 +3003,16 @@
         <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H32" t="s">
         <v>99</v>
@@ -2221,10 +3041,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H34" t="s">
         <v>36</v>
@@ -2243,10 +3063,10 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -2265,10 +3085,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H36" t="s">
         <v>38</v>
@@ -2287,10 +3107,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H37" t="s">
         <v>39</v>
@@ -2309,10 +3129,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
         <v>41</v>
@@ -2331,10 +3151,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -2353,10 +3173,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H40" t="s">
         <v>45</v>
@@ -2385,10 +3205,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
         <v>47</v>
@@ -2407,10 +3227,10 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H43" t="s">
         <v>162</v>
@@ -2429,10 +3249,10 @@
         <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
         <v>163</v>
@@ -2451,13 +3271,13 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
@@ -2493,10 +3313,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2512,13 +3332,13 @@
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2531,13 +3351,13 @@
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2550,13 +3370,13 @@
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2569,16 +3389,16 @@
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
         <v>198</v>
-      </c>
-      <c r="D52" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" t="s">
-        <v>222</v>
-      </c>
-      <c r="G52" t="s">
-        <v>199</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2591,13 +3411,13 @@
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2653,7 +3473,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H28" sqref="H6:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2665,33 +3485,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2699,27 +3519,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2727,16 +3547,16 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2744,30 +3564,30 @@
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2775,52 +3595,58 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2828,189 +3654,207 @@
         <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" t="s">
         <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-      <c r="H13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
         <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="H17" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="H18" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="H19" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="H20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" t="s">
         <v>183</v>
-      </c>
-      <c r="C26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3020,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,33 +3879,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3069,134 +3913,2401 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>196</v>
+        <v>218</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>209</v>
+      </c>
+      <c r="B30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>210</v>
+      </c>
+      <c r="B31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D33" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" t="s">
+        <v>507</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" t="s">
+        <v>478</v>
+      </c>
+      <c r="E35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" t="s">
+        <v>509</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>216</v>
+      </c>
+      <c r="B37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" t="s">
+        <v>510</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>218</v>
+      </c>
+      <c r="B39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" t="s">
+        <v>511</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" t="s">
+        <v>512</v>
+      </c>
+      <c r="D40" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>220</v>
+      </c>
+      <c r="B41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" t="s">
+        <v>513</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>221</v>
+      </c>
+      <c r="B42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" t="s">
+        <v>514</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" t="s">
+        <v>515</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>516</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" t="s">
+        <v>368</v>
+      </c>
+      <c r="E45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>518</v>
+      </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>226</v>
+      </c>
+      <c r="B47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" t="s">
+        <v>519</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>227</v>
+      </c>
+      <c r="B48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" t="s">
+        <v>520</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>230</v>
+      </c>
+      <c r="B51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" t="s">
+        <v>524</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C53" t="s">
+        <v>525</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" t="s">
+        <v>526</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" t="s">
+        <v>527</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>239</v>
+      </c>
+      <c r="B60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" t="s">
+        <v>530</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" t="s">
+        <v>531</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>241</v>
+      </c>
+      <c r="B62" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>242</v>
+      </c>
+      <c r="B63" t="s">
+        <v>380</v>
+      </c>
+      <c r="C63" t="s">
+        <v>532</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" t="s">
+        <v>533</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" t="s">
+        <v>534</v>
+      </c>
+      <c r="D66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>246</v>
+      </c>
+      <c r="B67" t="s">
+        <v>380</v>
+      </c>
+      <c r="C67" t="s">
+        <v>535</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" t="s">
+        <v>536</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>248</v>
+      </c>
+      <c r="B69" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>249</v>
+      </c>
+      <c r="B70" t="s">
+        <v>380</v>
+      </c>
+      <c r="C70" t="s">
+        <v>537</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>250</v>
+      </c>
+      <c r="B71" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" t="s">
+        <v>539</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>253</v>
+      </c>
+      <c r="B74" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" t="s">
+        <v>541</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>255</v>
+      </c>
+      <c r="B76" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>256</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
+      <c r="D77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>257</v>
+      </c>
+      <c r="B78" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" t="s">
+        <v>544</v>
+      </c>
+      <c r="D78" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>258</v>
+      </c>
+      <c r="B79" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>546</v>
+      </c>
+      <c r="D80" t="s">
+        <v>373</v>
+      </c>
+      <c r="E80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>260</v>
+      </c>
+      <c r="B81" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" t="s">
+        <v>547</v>
+      </c>
+      <c r="D81" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>380</v>
+      </c>
+      <c r="C82" t="s">
+        <v>548</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>262</v>
+      </c>
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" t="s">
+        <v>549</v>
+      </c>
+      <c r="D83" t="s">
+        <v>372</v>
+      </c>
+      <c r="E83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>263</v>
+      </c>
+      <c r="B84" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>551</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>265</v>
+      </c>
+      <c r="B86" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" t="s">
+        <v>552</v>
+      </c>
+      <c r="D86" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D87" t="s">
+        <v>375</v>
+      </c>
+      <c r="E87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>267</v>
+      </c>
+      <c r="B88" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" t="s">
+        <v>554</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>268</v>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>371</v>
+      </c>
+      <c r="E89" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>269</v>
+      </c>
+      <c r="B90" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>380</v>
+      </c>
+      <c r="C91" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>271</v>
+      </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>558</v>
+      </c>
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" t="s">
+        <v>559</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>273</v>
       </c>
-      <c r="D10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C94" t="s">
+        <v>560</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" t="s">
+        <v>561</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>275</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>562</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>276</v>
+      </c>
+      <c r="B97" t="s">
+        <v>380</v>
+      </c>
+      <c r="C97" t="s">
+        <v>563</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>380</v>
+      </c>
+      <c r="C98" t="s">
+        <v>564</v>
+      </c>
+      <c r="D98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99" t="s">
+        <v>565</v>
+      </c>
+      <c r="D99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>279</v>
+      </c>
+      <c r="B100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" t="s">
+        <v>566</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>280</v>
+      </c>
+      <c r="B101" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" t="s">
+        <v>567</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>281</v>
+      </c>
+      <c r="B102" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>282</v>
+      </c>
+      <c r="B103" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" t="s">
+        <v>568</v>
+      </c>
+      <c r="D103" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>283</v>
+      </c>
+      <c r="B104" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>284</v>
+      </c>
+      <c r="B105" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" t="s">
+        <v>569</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>285</v>
+      </c>
+      <c r="B106" t="s">
+        <v>380</v>
+      </c>
+      <c r="C106" t="s">
+        <v>570</v>
+      </c>
+      <c r="D106" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>286</v>
+      </c>
+      <c r="B107" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>287</v>
+      </c>
+      <c r="B108" t="s">
+        <v>380</v>
+      </c>
+      <c r="C108" t="s">
+        <v>572</v>
+      </c>
+      <c r="D108" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>288</v>
+      </c>
+      <c r="B109" t="s">
+        <v>380</v>
+      </c>
+      <c r="C109" t="s">
+        <v>573</v>
+      </c>
+      <c r="D109" t="s">
+        <v>361</v>
+      </c>
+      <c r="E109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>289</v>
+      </c>
+      <c r="B110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" t="s">
+        <v>574</v>
+      </c>
+      <c r="D110" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" t="s">
+        <v>575</v>
+      </c>
+      <c r="D111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>291</v>
+      </c>
+      <c r="B112" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>292</v>
+      </c>
+      <c r="B113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" t="s">
+        <v>576</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>293</v>
+      </c>
+      <c r="B114" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" t="s">
+        <v>267</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>380</v>
+      </c>
+      <c r="C116" t="s">
+        <v>580</v>
+      </c>
+      <c r="D116" t="s">
+        <v>603</v>
+      </c>
+      <c r="E116" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D117" t="s">
+        <v>615</v>
+      </c>
+      <c r="E117" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" t="s">
+        <v>582</v>
+      </c>
+      <c r="D118" t="s">
+        <v>616</v>
+      </c>
+      <c r="E118" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" t="s">
+        <v>583</v>
+      </c>
+      <c r="D119" t="s">
+        <v>617</v>
+      </c>
+      <c r="E119" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>380</v>
+      </c>
+      <c r="C120" t="s">
+        <v>578</v>
+      </c>
+      <c r="D120" t="s">
+        <v>603</v>
+      </c>
+      <c r="E120" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" t="s">
+        <v>584</v>
+      </c>
+      <c r="D121" t="s">
+        <v>618</v>
+      </c>
+      <c r="E121" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>380</v>
+      </c>
+      <c r="C123" t="s">
+        <v>586</v>
+      </c>
+      <c r="D123" t="s">
+        <v>622</v>
+      </c>
+      <c r="E123" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
+        <v>587</v>
+      </c>
+      <c r="D124" t="s">
+        <v>619</v>
+      </c>
+      <c r="E124" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" t="s">
+        <v>588</v>
+      </c>
+      <c r="D125" t="s">
+        <v>620</v>
+      </c>
+      <c r="E125" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>380</v>
+      </c>
+      <c r="C126" t="s">
+        <v>589</v>
+      </c>
+      <c r="D126" t="s">
+        <v>630</v>
+      </c>
+      <c r="E126" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" t="s">
+        <v>590</v>
+      </c>
+      <c r="D127" t="s">
+        <v>629</v>
+      </c>
+      <c r="E127" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
+        <v>591</v>
+      </c>
+      <c r="D128" t="s">
+        <v>631</v>
+      </c>
+      <c r="E128" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" t="s">
+        <v>577</v>
+      </c>
+      <c r="D129" t="s">
+        <v>632</v>
+      </c>
+      <c r="E129" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" t="s">
+        <v>592</v>
+      </c>
+      <c r="D130" t="s">
+        <v>632</v>
+      </c>
+      <c r="E130" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" t="s">
+        <v>593</v>
+      </c>
+      <c r="D131" t="s">
+        <v>633</v>
+      </c>
+      <c r="E131" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>380</v>
+      </c>
+      <c r="C132" t="s">
+        <v>593</v>
+      </c>
+      <c r="D132" t="s">
+        <v>634</v>
+      </c>
+      <c r="E132" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133" t="s">
+        <v>594</v>
+      </c>
+      <c r="D133" t="s">
+        <v>635</v>
+      </c>
+      <c r="E133" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>380</v>
+      </c>
+      <c r="C134" t="s">
+        <v>595</v>
+      </c>
+      <c r="D134" t="s">
+        <v>636</v>
+      </c>
+      <c r="E134" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>380</v>
+      </c>
+      <c r="C135" t="s">
+        <v>596</v>
+      </c>
+      <c r="D135" t="s">
+        <v>637</v>
+      </c>
+      <c r="E135" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136" t="s">
+        <v>597</v>
+      </c>
+      <c r="D136" t="s">
+        <v>638</v>
+      </c>
+      <c r="E136" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" t="s">
+        <v>579</v>
+      </c>
+      <c r="D137" t="s">
         <v>5</v>
       </c>
+      <c r="E137" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" t="s">
+        <v>598</v>
+      </c>
+      <c r="D138" t="s">
+        <v>639</v>
+      </c>
+      <c r="E138" t="s">
+        <v>614</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="C1:F158">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3206,7 +6317,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3220,33 +6331,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3255,27 +6366,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3283,16 +6394,16 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
@@ -3303,13 +6414,13 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
@@ -3322,10 +6433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,33 +6451,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3375,27 +6486,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3403,16 +6514,16 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
@@ -3423,13 +6534,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>69</v>
@@ -3440,59 +6551,56 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3500,16 +6608,16 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -3517,22 +6625,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3540,91 +6648,111 @@
         <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>347</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3639,7 +6767,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H6" sqref="H6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3652,33 +6780,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3687,41 +6815,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3729,16 +6857,16 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H6" t="s">
         <v>89</v>
@@ -3749,16 +6877,16 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H7" t="s">
         <v>89</v>
@@ -3769,16 +6897,16 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
         <v>77</v>
@@ -3789,16 +6917,16 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -3809,13 +6937,13 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -3830,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,33 +6972,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3879,41 +7007,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3921,13 +7049,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>69</v>
@@ -3938,16 +7066,16 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -3955,16 +7083,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3972,13 +7100,13 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3989,13 +7117,13 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -4003,13 +7131,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -4017,13 +7145,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
         <v>94</v>
@@ -4034,13 +7162,13 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
@@ -4051,10 +7179,10 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -4065,10 +7193,10 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -4079,13 +7207,13 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
         <v>86</v>
@@ -4096,10 +7224,10 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H17" t="s">
         <v>88</v>
@@ -4110,10 +7238,10 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
@@ -4124,10 +7252,10 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
@@ -4143,7 +7271,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4156,33 +7284,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4190,41 +7318,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4232,13 +7360,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
@@ -4249,16 +7377,16 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -4266,16 +7394,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4283,13 +7411,13 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -4300,16 +7428,16 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
         <v>105</v>
@@ -4317,16 +7445,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4334,13 +7462,13 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H12" t="s">
         <v>106</v>
@@ -4351,13 +7479,13 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
         <v>108</v>
@@ -4368,13 +7496,13 @@
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H15" t="s">
         <v>120</v>
@@ -4382,13 +7510,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H16" t="s">
         <v>120</v>
@@ -4399,16 +7527,16 @@
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
@@ -4419,16 +7547,16 @@
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
         <v>116</v>
@@ -4439,16 +7567,16 @@
         <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H19" t="s">
         <v>115</v>
@@ -4459,13 +7587,13 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
         <v>119</v>
@@ -4476,16 +7604,16 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
         <v>109</v>
@@ -4493,13 +7621,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -4507,19 +7635,19 @@
         <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -4527,13 +7655,13 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
         <v>124</v>
@@ -4544,10 +7672,10 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H27" t="s">
         <v>127</v>
@@ -4558,10 +7686,10 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H28" t="s">
         <v>125</v>
@@ -4572,10 +7700,10 @@
         <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>143</v>
@@ -4586,10 +7714,10 @@
         <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H31" t="s">
         <v>144</v>
@@ -4597,24 +7725,24 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +7755,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4641,33 +7769,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4675,41 +7803,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4717,16 +7845,16 @@
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
         <v>129</v>
@@ -4734,36 +7862,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4771,13 +7899,13 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>131</v>
@@ -4788,13 +7916,13 @@
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
         <v>133</v>
@@ -4810,7 +7938,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,33 +7950,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4856,27 +7984,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4884,16 +8012,16 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H5" t="s">
         <v>129</v>
@@ -4904,13 +8032,13 @@
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>138</v>
@@ -4921,16 +8049,16 @@
         <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -4938,16 +8066,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4955,13 +8083,13 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>136</v>
@@ -4972,13 +8100,13 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
         <v>137</v>
@@ -4989,10 +8117,10 @@
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H11" t="s">
         <v>140</v>
@@ -5003,10 +8131,10 @@
         <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H12" t="s">
         <v>155</v>
@@ -5022,7 +8150,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5035,33 +8163,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5069,27 +8197,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5097,19 +8225,19 @@
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -5117,10 +8245,10 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
@@ -5131,10 +8259,10 @@
         <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
         <v>148</v>
@@ -5145,10 +8273,10 @@
         <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>153</v>
@@ -5159,10 +8287,10 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H9" t="s">
         <v>151</v>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="642">
   <si>
     <t>供应商名称</t>
   </si>
@@ -1987,6 +1987,12 @@
   </si>
   <si>
     <t>时区</t>
+  </si>
+  <si>
+    <t>display_order</t>
+  </si>
+  <si>
+    <t>排序</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6314,10 +6320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6426,6 +6432,20 @@
         <v>77</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6436,7 +6456,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6767,7 +6787,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H10"/>
+      <selection activeCell="C5" sqref="C5:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
-    <sheet name="InspectionCheckList" sheetId="5" r:id="rId2"/>
-    <sheet name="InspectionOrder" sheetId="7" r:id="rId3"/>
-    <sheet name="InspectionOrderDetail" sheetId="8" r:id="rId4"/>
-    <sheet name="PMOrder" sheetId="10" r:id="rId5"/>
-    <sheet name="WorkOrder" sheetId="2" r:id="rId6"/>
-    <sheet name="WorkOrderHistory" sheetId="11" r:id="rId7"/>
-    <sheet name="WorkOrderStep" sheetId="12" r:id="rId8"/>
-    <sheet name="WorkOrderStepDetail" sheetId="13" r:id="rId9"/>
-    <sheet name="AssetClinicalRecord" sheetId="4" r:id="rId10"/>
-    <sheet name="Supplier(备用)" sheetId="3" r:id="rId11"/>
-    <sheet name="AllFieldList" sheetId="14" r:id="rId12"/>
+    <sheet name="AssetDeprecation" sheetId="15" r:id="rId2"/>
+    <sheet name="InspectionCheckList" sheetId="5" r:id="rId3"/>
+    <sheet name="InspectionOrder" sheetId="7" r:id="rId4"/>
+    <sheet name="InspectionOrderDetail" sheetId="8" r:id="rId5"/>
+    <sheet name="PMOrder" sheetId="10" r:id="rId6"/>
+    <sheet name="WorkOrder" sheetId="2" r:id="rId7"/>
+    <sheet name="WorkOrderHistory" sheetId="11" r:id="rId8"/>
+    <sheet name="WorkOrderStep" sheetId="12" r:id="rId9"/>
+    <sheet name="WorkOrderStepDetail" sheetId="13" r:id="rId10"/>
+    <sheet name="AssetClinicalRecord" sheetId="4" r:id="rId11"/>
+    <sheet name="Supplier(备用)" sheetId="3" r:id="rId12"/>
+    <sheet name="AllFieldList" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">AllFieldList!$C$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">AllFieldList!$C$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="654">
   <si>
     <t>供应商名称</t>
   </si>
@@ -796,9 +797,6 @@
   </si>
   <si>
     <t>terminate_date</t>
-  </si>
-  <si>
-    <t>plan_date</t>
   </si>
   <si>
     <t>float</t>
@@ -1068,9 +1066,6 @@
     <t>creator_name</t>
   </si>
   <si>
-    <t>当前处理步骤(报修/确认/派工…)</t>
-  </si>
-  <si>
     <t>confirmed_start_time</t>
   </si>
   <si>
@@ -1993,6 +1988,48 @@
   </si>
   <si>
     <t>排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>上次计量日期</t>
+  </si>
+  <si>
+    <t>上次质控日期</t>
+  </si>
+  <si>
+    <t>last_pm_date</t>
+  </si>
+  <si>
+    <t>last_metering_date</t>
+  </si>
+  <si>
+    <t>last_qa_date</t>
+  </si>
+  <si>
+    <t>asset_deprecation</t>
+  </si>
+  <si>
+    <t>deprecate_date</t>
+  </si>
+  <si>
+    <t>折旧日期</t>
+  </si>
+  <si>
+    <t>deprecate_amount</t>
+  </si>
+  <si>
+    <t>折旧值</t>
+  </si>
+  <si>
+    <t>checklist_typ</t>
+  </si>
+  <si>
+    <t>checklist类型(巡检/质控/计量)</t>
+  </si>
+  <si>
+    <t>当前处理步骤(报修/审核，审批/派工/领工/维修/关单)</t>
   </si>
 </sst>
 </file>
@@ -2478,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,10 +2550,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -2559,7 +2596,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2570,7 +2607,7 @@
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>218</v>
@@ -2584,10 +2621,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
@@ -2652,7 +2689,7 @@
         <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2666,7 +2703,7 @@
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -2680,7 +2717,7 @@
         <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
         <v>67</v>
@@ -2694,7 +2731,7 @@
         <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -2708,7 +2745,7 @@
         <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -2722,7 +2759,7 @@
         <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
         <v>158</v>
@@ -2736,7 +2773,7 @@
         <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -2750,7 +2787,7 @@
         <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -2764,7 +2801,7 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H19" t="s">
         <v>156</v>
@@ -2778,7 +2815,7 @@
         <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -2792,7 +2829,7 @@
         <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -2812,7 +2849,7 @@
         <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H23" t="s">
         <v>159</v>
@@ -2823,13 +2860,13 @@
         <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -2837,13 +2874,13 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H25" t="s">
         <v>54</v>
@@ -2878,7 +2915,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
@@ -2887,7 +2924,7 @@
         <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H27" t="s">
         <v>239</v>
@@ -2906,7 +2943,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
         <v>226</v>
@@ -2915,7 +2952,7 @@
         <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -2934,16 +2971,16 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
         <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2962,10 +2999,10 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -3032,7 +3069,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -3042,7 +3079,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3101,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>51</v>
       </c>
@@ -3086,7 +3123,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>37</v>
       </c>
@@ -3108,7 +3145,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -3130,7 +3167,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -3152,7 +3189,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -3174,12 +3211,12 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>643</v>
       </c>
       <c r="D40" t="s">
         <v>244</v>
@@ -3196,7 +3233,16 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" t="s">
+        <v>641</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -3206,18 +3252,15 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>254</v>
+        <v>645</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>642</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -3228,19 +3271,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" t="s">
-        <v>252</v>
-      </c>
-      <c r="H43" t="s">
-        <v>162</v>
-      </c>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3250,18 +3281,18 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>253</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -3272,21 +3303,18 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3297,7 +3325,19 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>163</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -3307,7 +3347,22 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -3317,16 +3372,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -3336,16 +3382,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" t="s">
-        <v>218</v>
-      </c>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -3355,16 +3392,16 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" t="s">
-        <v>218</v>
-      </c>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -3374,12 +3411,12 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
         <v>218</v>
@@ -3393,18 +3430,15 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
         <v>218</v>
-      </c>
-      <c r="G52" t="s">
-        <v>198</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -3415,12 +3449,12 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E53" t="s">
         <v>218</v>
@@ -3434,7 +3468,19 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -3444,7 +3490,16 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>314</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
+      </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -3454,7 +3509,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -3464,9 +3519,29 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K26:R56"/>
+    <mergeCell ref="K26:R58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3476,10 +3551,167 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H6:H28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3506,10 +3738,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -3545,7 +3777,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3553,7 +3785,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -3579,7 +3811,7 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3587,7 +3819,7 @@
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -3601,10 +3833,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
@@ -3615,7 +3847,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
         <v>226</v>
@@ -3624,26 +3856,26 @@
         <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" t="s">
         <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
         <v>226</v>
@@ -3652,7 +3884,7 @@
         <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3660,16 +3892,16 @@
         <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
         <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3677,10 +3909,10 @@
         <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
         <v>167</v>
@@ -3691,7 +3923,7 @@
         <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
         <v>226</v>
@@ -3705,10 +3937,10 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
         <v>179</v>
@@ -3719,13 +3951,13 @@
         <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -3733,13 +3965,13 @@
         <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -3747,13 +3979,13 @@
         <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -3761,13 +3993,13 @@
         <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>226</v>
       </c>
       <c r="H20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -3775,10 +4007,10 @@
         <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
         <v>176</v>
@@ -3789,10 +4021,10 @@
         <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
         <v>177</v>
@@ -3803,7 +4035,7 @@
         <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -3817,7 +4049,7 @@
         <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
         <v>244</v>
@@ -3834,10 +4066,10 @@
         <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
         <v>218</v>
@@ -3851,10 +4083,10 @@
         <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
         <v>218</v>
@@ -3868,7 +4100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3900,10 +4132,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -3939,7 +4171,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3950,7 +4182,7 @@
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
         <v>218</v>
@@ -3964,10 +4196,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
         <v>1</v>
@@ -3978,10 +4210,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -3992,10 +4224,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -4006,10 +4238,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4023,7 +4255,7 @@
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4034,7 +4266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
@@ -4055,10 +4287,10 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>148</v>
@@ -4072,16 +4304,16 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
         <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4089,16 +4321,16 @@
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4106,10 +4338,10 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -4123,16 +4355,16 @@
         <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4140,16 +4372,16 @@
         <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4157,16 +4389,16 @@
         <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
         <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4174,16 +4406,16 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4191,16 +4423,16 @@
         <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D9" t="s">
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4208,16 +4440,16 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4225,16 +4457,16 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4242,16 +4474,16 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4259,16 +4491,16 @@
         <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D13" t="s">
         <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4276,7 +4508,7 @@
         <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
         <v>234</v>
@@ -4293,16 +4525,16 @@
         <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4310,16 +4542,16 @@
         <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4327,16 +4559,16 @@
         <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D17" t="s">
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4344,16 +4576,16 @@
         <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D18" t="s">
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4361,16 +4593,16 @@
         <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4378,10 +4610,10 @@
         <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -4395,16 +4627,16 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4412,16 +4644,16 @@
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4429,16 +4661,16 @@
         <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D23" t="s">
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4446,10 +4678,10 @@
         <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -4463,16 +4695,16 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4480,16 +4712,16 @@
         <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4497,10 +4729,10 @@
         <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -4514,16 +4746,16 @@
         <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4531,16 +4763,16 @@
         <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4548,16 +4780,16 @@
         <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4565,16 +4797,16 @@
         <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4582,16 +4814,16 @@
         <v>211</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4599,16 +4831,16 @@
         <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4616,16 +4848,16 @@
         <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4633,16 +4865,16 @@
         <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4650,16 +4882,16 @@
         <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4667,16 +4899,16 @@
         <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D37" t="s">
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4684,10 +4916,10 @@
         <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38" t="s">
         <v>140</v>
@@ -4701,16 +4933,16 @@
         <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4718,16 +4950,16 @@
         <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4735,16 +4967,16 @@
         <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D41" t="s">
         <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4752,16 +4984,16 @@
         <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4769,16 +5001,16 @@
         <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D43" t="s">
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -4786,16 +5018,16 @@
         <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4803,16 +5035,16 @@
         <v>224</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4820,16 +5052,16 @@
         <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D46" t="s">
         <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4837,16 +5069,16 @@
         <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4854,16 +5086,16 @@
         <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4871,16 +5103,16 @@
         <v>228</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4888,16 +5120,16 @@
         <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4905,16 +5137,16 @@
         <v>230</v>
       </c>
       <c r="B51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D51" t="s">
         <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4922,16 +5154,16 @@
         <v>231</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D52" t="s">
         <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4939,16 +5171,16 @@
         <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D53" t="s">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4956,16 +5188,16 @@
         <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D54" t="s">
         <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4973,16 +5205,16 @@
         <v>234</v>
       </c>
       <c r="B55" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4990,7 +5222,7 @@
         <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
         <v>118</v>
@@ -4999,7 +5231,7 @@
         <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -5007,16 +5239,16 @@
         <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D57" t="s">
         <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -5024,16 +5256,16 @@
         <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -5041,10 +5273,10 @@
         <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
         <v>77</v>
@@ -5058,16 +5290,16 @@
         <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D60" t="s">
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5075,16 +5307,16 @@
         <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -5092,10 +5324,10 @@
         <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>163</v>
@@ -5109,16 +5341,16 @@
         <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D63" t="s">
         <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5126,16 +5358,16 @@
         <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -5143,7 +5375,7 @@
         <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
         <v>229</v>
@@ -5160,16 +5392,16 @@
         <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D66" t="s">
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -5177,16 +5409,16 @@
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D67" t="s">
         <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -5194,16 +5426,16 @@
         <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D68" t="s">
         <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -5211,7 +5443,7 @@
         <v>248</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
         <v>225</v>
@@ -5228,16 +5460,16 @@
         <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
         <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5245,16 +5477,16 @@
         <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -5262,16 +5494,16 @@
         <v>251</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -5279,7 +5511,7 @@
         <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C73" t="s">
         <v>221</v>
@@ -5296,16 +5528,16 @@
         <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D74" t="s">
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -5313,16 +5545,16 @@
         <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -5330,16 +5562,16 @@
         <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D76" t="s">
         <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -5347,16 +5579,16 @@
         <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5364,16 +5596,16 @@
         <v>257</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E78" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -5381,16 +5613,16 @@
         <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D79" t="s">
         <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5398,16 +5630,16 @@
         <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -5415,16 +5647,16 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E81" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -5432,16 +5664,16 @@
         <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D82" t="s">
         <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -5449,16 +5681,16 @@
         <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E83" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -5466,16 +5698,16 @@
         <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E84" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -5483,16 +5715,16 @@
         <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -5500,16 +5732,16 @@
         <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D86" t="s">
         <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -5517,16 +5749,16 @@
         <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C87" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D87" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E87" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -5534,16 +5766,16 @@
         <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E88" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -5551,16 +5783,16 @@
         <v>268</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E89" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -5568,16 +5800,16 @@
         <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C90" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E90" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,16 +5817,16 @@
         <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5602,16 +5834,16 @@
         <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C92" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -5619,16 +5851,16 @@
         <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D93" t="s">
         <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -5636,16 +5868,16 @@
         <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -5653,16 +5885,16 @@
         <v>274</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D95" t="s">
         <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -5670,16 +5902,16 @@
         <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D96" t="s">
         <v>106</v>
       </c>
       <c r="E96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -5687,16 +5919,16 @@
         <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D97" t="s">
         <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -5704,16 +5936,16 @@
         <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D98" t="s">
         <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -5721,16 +5953,16 @@
         <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D99" t="s">
         <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -5738,16 +5970,16 @@
         <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C100" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D100" t="s">
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -5755,16 +5987,16 @@
         <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D101" t="s">
         <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -5772,13 +6004,13 @@
         <v>281</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
         <v>243</v>
       </c>
       <c r="D102" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E102" t="s">
         <v>98</v>
@@ -5789,16 +6021,16 @@
         <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C103" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D103" t="s">
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -5806,7 +6038,7 @@
         <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C104" t="s">
         <v>215</v>
@@ -5823,16 +6055,16 @@
         <v>284</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C105" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D105" t="s">
         <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -5840,16 +6072,16 @@
         <v>285</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C106" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D106" t="s">
         <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -5857,16 +6089,16 @@
         <v>286</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D107" t="s">
         <v>144</v>
       </c>
       <c r="E107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -5874,16 +6106,16 @@
         <v>287</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -5891,16 +6123,16 @@
         <v>288</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C109" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E109" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -5908,16 +6140,16 @@
         <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D110" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E110" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -5925,16 +6157,16 @@
         <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C111" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D111" t="s">
         <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -5942,7 +6174,7 @@
         <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C112" t="s">
         <v>227</v>
@@ -5959,16 +6191,16 @@
         <v>292</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D113" t="s">
         <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -5976,10 +6208,10 @@
         <v>293</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -5990,324 +6222,324 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D116" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E116" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C117" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D117" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E117" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D118" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E118" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D119" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E119" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D120" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E120" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E121" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D122" t="s">
+        <v>619</v>
+      </c>
+      <c r="E122" t="s">
         <v>621</v>
-      </c>
-      <c r="E122" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C123" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D123" t="s">
+        <v>620</v>
+      </c>
+      <c r="E123" t="s">
         <v>622</v>
-      </c>
-      <c r="E123" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C124" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D124" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E124" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D125" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E125" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D126" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E126" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D127" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E127" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D128" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E128" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D129" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E129" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D130" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E130" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D131" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E131" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D132" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E132" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D133" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E133" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D134" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E134" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D135" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E135" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D136" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E136" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D138" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6322,8 +6554,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6352,10 +6707,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -6363,7 +6718,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6392,7 +6747,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6400,7 +6755,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -6416,34 +6771,48 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" t="s">
         <v>226</v>
       </c>
-      <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" t="s">
-        <v>641</v>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -6451,12 +6820,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6486,10 +6855,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -6526,7 +6895,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6534,7 +6903,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -6557,7 +6926,7 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
@@ -6571,7 +6940,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -6580,7 +6949,7 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -6588,16 +6957,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H8" t="s">
         <v>103</v>
@@ -6608,16 +6977,16 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -6628,7 +6997,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
         <v>226</v>
@@ -6637,7 +7006,7 @@
         <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -6648,16 +7017,16 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
         <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -6677,10 +7046,10 @@
         <v>218</v>
       </c>
       <c r="F12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" t="s">
         <v>322</v>
-      </c>
-      <c r="H12" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6688,19 +7057,19 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
         <v>345</v>
       </c>
-      <c r="D13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" t="s">
-        <v>347</v>
-      </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6708,10 +7077,10 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -6722,10 +7091,10 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
         <v>263</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -6736,7 +7105,7 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>242</v>
@@ -6753,10 +7122,10 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H17" t="s">
         <v>88</v>
@@ -6767,10 +7136,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" t="s">
         <v>101</v>
@@ -6782,7 +7151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -6815,10 +7184,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -6855,12 +7224,12 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -6877,7 +7246,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -6886,7 +7255,7 @@
         <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" t="s">
         <v>89</v>
@@ -6897,7 +7266,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -6906,7 +7275,7 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H7" t="s">
         <v>89</v>
@@ -6917,7 +7286,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
         <v>226</v>
@@ -6937,7 +7306,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>226</v>
@@ -6957,7 +7326,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
         <v>242</v>
@@ -6974,12 +7343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7007,10 +7376,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -7047,12 +7416,12 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7072,7 +7441,7 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
@@ -7086,7 +7455,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -7095,7 +7464,7 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -7103,16 +7472,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7120,10 +7489,10 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
@@ -7137,13 +7506,13 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
         <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -7151,13 +7520,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -7171,7 +7540,7 @@
         <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" t="s">
         <v>94</v>
@@ -7182,13 +7551,13 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
@@ -7199,10 +7568,10 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -7213,10 +7582,10 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
         <v>263</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -7227,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>242</v>
@@ -7244,10 +7613,10 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
         <v>88</v>
@@ -7258,10 +7627,10 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
@@ -7272,10 +7641,10 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" t="s">
         <v>331</v>
-      </c>
-      <c r="D19" t="s">
-        <v>332</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
@@ -7286,12 +7655,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7319,10 +7688,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -7358,12 +7727,12 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7383,7 +7752,7 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
@@ -7397,7 +7766,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -7406,24 +7775,24 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7431,10 +7800,10 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
@@ -7448,7 +7817,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
         <v>226</v>
@@ -7457,7 +7826,7 @@
         <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
         <v>105</v>
@@ -7465,16 +7834,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
         <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -7482,10 +7851,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
         <v>218</v>
@@ -7499,10 +7868,10 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
         <v>218</v>
@@ -7516,13 +7885,13 @@
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
         <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H15" t="s">
         <v>120</v>
@@ -7530,13 +7899,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H16" t="s">
         <v>120</v>
@@ -7547,16 +7916,13 @@
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D17" t="s">
         <v>226</v>
       </c>
-      <c r="E17" t="s">
-        <v>218</v>
-      </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
@@ -7567,16 +7933,13 @@
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D18" t="s">
         <v>226</v>
       </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H18" t="s">
         <v>116</v>
@@ -7587,7 +7950,7 @@
         <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
         <v>226</v>
@@ -7596,7 +7959,7 @@
         <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
         <v>115</v>
@@ -7607,7 +7970,7 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
         <v>242</v>
@@ -7624,7 +7987,7 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D22" t="s">
         <v>226</v>
@@ -7633,7 +7996,7 @@
         <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H22" t="s">
         <v>109</v>
@@ -7641,13 +8004,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -7655,7 +8018,7 @@
         <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -7667,7 +8030,7 @@
         <v>205</v>
       </c>
       <c r="H24" t="s">
-        <v>337</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -7675,7 +8038,7 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D26" t="s">
         <v>242</v>
@@ -7692,10 +8055,10 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H27" t="s">
         <v>127</v>
@@ -7706,10 +8069,10 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H28" t="s">
         <v>125</v>
@@ -7720,7 +8083,7 @@
         <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
         <v>226</v>
@@ -7734,10 +8097,10 @@
         <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" t="s">
         <v>144</v>
@@ -7745,24 +8108,24 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" t="s">
         <v>338</v>
-      </c>
-      <c r="D33" t="s">
-        <v>264</v>
-      </c>
-      <c r="H33" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" t="s">
         <v>339</v>
-      </c>
-      <c r="D34" t="s">
-        <v>264</v>
-      </c>
-      <c r="H34" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7770,7 +8133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -7804,10 +8167,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -7843,12 +8206,12 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7865,7 +8228,7 @@
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -7882,7 +8245,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -7891,27 +8254,27 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" t="s">
         <v>359</v>
-      </c>
-      <c r="D8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7919,10 +8282,10 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
@@ -7936,10 +8299,10 @@
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>218</v>
@@ -7953,12 +8316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7985,10 +8348,10 @@
         <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>212</v>
@@ -8024,7 +8387,7 @@
         <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -8032,7 +8395,7 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -8048,276 +8411,130 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
-      </c>
-      <c r="H6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>135</v>
       </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
       </c>
-      <c r="H9" t="s">
-        <v>136</v>
+      <c r="F9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="s">
         <v>263</v>
       </c>
-      <c r="D10" t="s">
-        <v>264</v>
-      </c>
       <c r="E10" t="s">
         <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>294</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="655">
   <si>
     <t>供应商名称</t>
   </si>
@@ -2023,13 +2023,16 @@
     <t>折旧值</t>
   </si>
   <si>
-    <t>checklist_typ</t>
-  </si>
-  <si>
     <t>checklist类型(巡检/质控/计量)</t>
   </si>
   <si>
     <t>当前处理步骤(报修/审核，审批/派工/领工/维修/关单)</t>
+  </si>
+  <si>
+    <t>checklist_type</t>
+  </si>
+  <si>
+    <t>asset_name</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2518,7 +2527,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3708,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3781,11 +3790,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -3794,15 +3800,15 @@
         <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -3810,16 +3816,16 @@
       <c r="E6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" t="s">
-        <v>268</v>
+      <c r="F6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -3828,15 +3834,18 @@
         <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
         <v>218</v>
@@ -3847,24 +3856,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
         <v>218</v>
@@ -3875,27 +3884,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>284</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>226</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" t="s">
-        <v>313</v>
       </c>
       <c r="E12" t="s">
         <v>218</v>
@@ -3906,66 +3912,69 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>313</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>184</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>281</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>226</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H17" t="s">
-        <v>370</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
         <v>313</v>
@@ -3976,114 +3985,111 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
         <v>313</v>
       </c>
       <c r="H19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>276</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>226</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
         <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>175</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>273</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>226</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
         <v>218</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
         <v>269</v>
@@ -4092,6 +4098,23 @@
         <v>218</v>
       </c>
       <c r="H28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6678,7 +6701,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6772,7 +6795,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -6781,7 +6804,7 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7657,10 +7680,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7732,7 +7755,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7741,284 +7764,281 @@
         <v>218</v>
       </c>
       <c r="F5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>221</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>313</v>
       </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>260</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>263</v>
       </c>
-      <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>297</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>263</v>
       </c>
-      <c r="E12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="D17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="s">
-        <v>299</v>
+      <c r="F17" t="s">
+        <v>323</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" t="s">
-        <v>301</v>
+        <v>316</v>
+      </c>
+      <c r="F18" t="s">
+        <v>341</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
         <v>226</v>
       </c>
-      <c r="E19" t="s">
-        <v>218</v>
-      </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" t="s">
-        <v>218</v>
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>301</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
         <v>218</v>
       </c>
-      <c r="F22" t="s">
-        <v>323</v>
-      </c>
       <c r="H22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" t="s">
-        <v>341</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -8026,105 +8046,136 @@
       <c r="E24" t="s">
         <v>218</v>
       </c>
-      <c r="G24" t="s">
-        <v>205</v>
+      <c r="F24" t="s">
+        <v>323</v>
       </c>
       <c r="H24" t="s">
-        <v>653</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
       </c>
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
       <c r="H26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" t="s">
-        <v>326</v>
-      </c>
-      <c r="H27" t="s">
-        <v>127</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="D28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" t="s">
         <v>326</v>
       </c>
-      <c r="H28" t="s">
-        <v>125</v>
+      <c r="H29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>326</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>141</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>304</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>226</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>305</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>251</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>336</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>263</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>337</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>263</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8321,7 +8372,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8112" tabRatio="748" activeTab="6"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="10824" windowHeight="6612" tabRatio="748" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -1066,12 +1066,6 @@
     <t>creator_name</t>
   </si>
   <si>
-    <t>confirmed_start_time</t>
-  </si>
-  <si>
-    <t>confirmed_end_time</t>
-  </si>
-  <si>
     <t>确认的停机时间</t>
   </si>
   <si>
@@ -2033,6 +2027,12 @@
   </si>
   <si>
     <t>asset_name</t>
+  </si>
+  <si>
+    <t>confirmed_down_time</t>
+  </si>
+  <si>
+    <t>confirmed_up_time</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2630,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
         <v>312</v>
@@ -2869,7 +2869,7 @@
         <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D25" t="s">
         <v>311</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H25" t="s">
         <v>54</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
@@ -2980,7 +2980,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D29" t="s">
         <v>316</v>
@@ -2989,7 +2989,7 @@
         <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3225,7 +3225,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D40" t="s">
         <v>244</v>
@@ -3244,13 +3244,13 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D41" t="s">
         <v>244</v>
       </c>
       <c r="H41" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D42" t="s">
         <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -3638,7 +3638,7 @@
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -3879,7 +3879,7 @@
         <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
         <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3907,7 +3907,7 @@
         <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3924,7 +3924,7 @@
         <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3980,7 +3980,7 @@
         <v>313</v>
       </c>
       <c r="H18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -3994,7 +3994,7 @@
         <v>313</v>
       </c>
       <c r="H19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>313</v>
       </c>
       <c r="H20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
         <v>287</v>
@@ -4327,16 +4327,16 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
         <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4344,16 +4344,16 @@
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4361,7 +4361,7 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
         <v>265</v>
@@ -4378,16 +4378,16 @@
         <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4395,16 +4395,16 @@
         <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4412,16 +4412,16 @@
         <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
         <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4429,16 +4429,16 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4446,16 +4446,16 @@
         <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4463,16 +4463,16 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4480,16 +4480,16 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4497,16 +4497,16 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4514,16 +4514,16 @@
         <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
         <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
         <v>234</v>
@@ -4548,16 +4548,16 @@
         <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4565,16 +4565,16 @@
         <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4582,16 +4582,16 @@
         <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D17" t="s">
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4599,16 +4599,16 @@
         <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D18" t="s">
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4616,16 +4616,16 @@
         <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4633,7 +4633,7 @@
         <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C20" t="s">
         <v>264</v>
@@ -4650,16 +4650,16 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4667,16 +4667,16 @@
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4684,16 +4684,16 @@
         <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D23" t="s">
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4701,7 +4701,7 @@
         <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>259</v>
@@ -4718,16 +4718,16 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4735,16 +4735,16 @@
         <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4752,7 +4752,7 @@
         <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
@@ -4769,16 +4769,16 @@
         <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4786,16 +4786,16 @@
         <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4803,16 +4803,16 @@
         <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4820,16 +4820,16 @@
         <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4837,16 +4837,16 @@
         <v>211</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4854,16 +4854,16 @@
         <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D33" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4871,16 +4871,16 @@
         <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4888,16 +4888,16 @@
         <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4905,16 +4905,16 @@
         <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4922,16 +4922,16 @@
         <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D37" t="s">
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4939,7 +4939,7 @@
         <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
         <v>294</v>
@@ -4956,16 +4956,16 @@
         <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4973,16 +4973,16 @@
         <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4990,16 +4990,16 @@
         <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D41" t="s">
         <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -5007,16 +5007,16 @@
         <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5024,16 +5024,16 @@
         <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D43" t="s">
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -5041,16 +5041,16 @@
         <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5058,16 +5058,16 @@
         <v>224</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E45" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5075,16 +5075,16 @@
         <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D46" t="s">
         <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -5092,16 +5092,16 @@
         <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C47" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5109,16 +5109,16 @@
         <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C48" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5126,16 +5126,16 @@
         <v>228</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C49" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5143,16 +5143,16 @@
         <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,16 +5160,16 @@
         <v>230</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D51" t="s">
         <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -5177,16 +5177,16 @@
         <v>231</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C52" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
         <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5194,16 +5194,16 @@
         <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D53" t="s">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -5211,16 +5211,16 @@
         <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D54" t="s">
         <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -5228,16 +5228,16 @@
         <v>234</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -5245,7 +5245,7 @@
         <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
         <v>118</v>
@@ -5254,7 +5254,7 @@
         <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -5262,16 +5262,16 @@
         <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D57" t="s">
         <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -5279,16 +5279,16 @@
         <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -5296,7 +5296,7 @@
         <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
         <v>256</v>
@@ -5313,16 +5313,16 @@
         <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D60" t="s">
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5330,16 +5330,16 @@
         <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C61" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -5347,7 +5347,7 @@
         <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s">
         <v>252</v>
@@ -5364,16 +5364,16 @@
         <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C63" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D63" t="s">
         <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5381,16 +5381,16 @@
         <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -5398,7 +5398,7 @@
         <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C65" t="s">
         <v>229</v>
@@ -5415,16 +5415,16 @@
         <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D66" t="s">
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -5432,16 +5432,16 @@
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D67" t="s">
         <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -5449,16 +5449,16 @@
         <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D68" t="s">
         <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -5466,7 +5466,7 @@
         <v>248</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C69" t="s">
         <v>225</v>
@@ -5483,16 +5483,16 @@
         <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D70" t="s">
         <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5500,16 +5500,16 @@
         <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C71" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -5517,16 +5517,16 @@
         <v>251</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C72" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
         <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C73" t="s">
         <v>221</v>
@@ -5551,16 +5551,16 @@
         <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C74" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D74" t="s">
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -5568,16 +5568,16 @@
         <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,16 +5585,16 @@
         <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C76" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D76" t="s">
         <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -5602,16 +5602,16 @@
         <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C77" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E77" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5619,16 +5619,16 @@
         <v>257</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -5636,16 +5636,16 @@
         <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D79" t="s">
         <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5653,16 +5653,16 @@
         <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C80" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D80" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E80" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -5670,16 +5670,16 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C81" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -5687,16 +5687,16 @@
         <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C82" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D82" t="s">
         <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -5704,16 +5704,16 @@
         <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D83" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E83" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -5721,16 +5721,16 @@
         <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C84" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -5738,16 +5738,16 @@
         <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C85" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -5755,16 +5755,16 @@
         <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C86" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D86" t="s">
         <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -5772,16 +5772,16 @@
         <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D87" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E87" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -5789,16 +5789,16 @@
         <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -5806,16 +5806,16 @@
         <v>268</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E89" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -5823,16 +5823,16 @@
         <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C90" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E90" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -5840,16 +5840,16 @@
         <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C91" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D91" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E91" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5857,16 +5857,16 @@
         <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -5874,16 +5874,16 @@
         <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D93" t="s">
         <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -5891,16 +5891,16 @@
         <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -5908,16 +5908,16 @@
         <v>274</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D95" t="s">
         <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -5925,16 +5925,16 @@
         <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D96" t="s">
         <v>106</v>
       </c>
       <c r="E96" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -5942,16 +5942,16 @@
         <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C97" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D97" t="s">
         <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -5959,16 +5959,16 @@
         <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C98" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D98" t="s">
         <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -5976,16 +5976,16 @@
         <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C99" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D99" t="s">
         <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -5993,16 +5993,16 @@
         <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D100" t="s">
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -6010,16 +6010,16 @@
         <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D101" t="s">
         <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -6027,13 +6027,13 @@
         <v>281</v>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
         <v>243</v>
       </c>
       <c r="D102" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
         <v>98</v>
@@ -6044,16 +6044,16 @@
         <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D103" t="s">
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -6061,7 +6061,7 @@
         <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
         <v>215</v>
@@ -6078,16 +6078,16 @@
         <v>284</v>
       </c>
       <c r="B105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D105" t="s">
         <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -6095,16 +6095,16 @@
         <v>285</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D106" t="s">
         <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -6112,16 +6112,16 @@
         <v>286</v>
       </c>
       <c r="B107" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C107" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D107" t="s">
         <v>144</v>
       </c>
       <c r="E107" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -6129,16 +6129,16 @@
         <v>287</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -6146,16 +6146,16 @@
         <v>288</v>
       </c>
       <c r="B109" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C109" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D109" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E109" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -6163,16 +6163,16 @@
         <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C110" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E110" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -6180,16 +6180,16 @@
         <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D111" t="s">
         <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C112" t="s">
         <v>227</v>
@@ -6214,16 +6214,16 @@
         <v>292</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D113" t="s">
         <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -6231,7 +6231,7 @@
         <v>293</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C114" t="s">
         <v>266</v>
@@ -6245,324 +6245,324 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C116" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D116" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E116" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C117" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E117" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D118" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E118" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C119" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D119" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E119" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D120" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E120" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C121" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D121" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E121" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D122" t="s">
+        <v>617</v>
+      </c>
+      <c r="E122" t="s">
         <v>619</v>
-      </c>
-      <c r="E122" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C123" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D123" t="s">
+        <v>618</v>
+      </c>
+      <c r="E123" t="s">
         <v>620</v>
-      </c>
-      <c r="E123" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D124" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E124" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C125" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D125" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E125" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C126" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D126" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E126" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C127" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D127" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E127" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C128" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D128" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E128" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C129" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D129" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E129" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C130" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D130" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E130" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C131" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D131" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E131" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D132" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E132" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D133" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E133" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C134" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D134" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E134" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D135" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E135" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C136" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D136" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E136" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C137" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C138" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D138" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E138" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D6" t="s">
         <v>244</v>
@@ -6674,12 +6674,12 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D7" t="s">
         <v>251</v>
@@ -6688,7 +6688,7 @@
         <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -6804,7 +6804,7 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D8" t="s">
         <v>226</v>
@@ -6835,7 +6835,7 @@
         <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -6963,7 +6963,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -6989,7 +6989,7 @@
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
         <v>103</v>
@@ -7009,7 +7009,7 @@
         <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -7020,7 +7020,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
         <v>226</v>
@@ -7040,7 +7040,7 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
         <v>316</v>
@@ -7049,7 +7049,7 @@
         <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
         <v>311</v>
@@ -7089,7 +7089,7 @@
         <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7289,7 +7289,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -7329,7 +7329,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
         <v>226</v>
@@ -7478,7 +7478,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -7504,7 +7504,7 @@
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7529,7 +7529,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
         <v>226</v>
@@ -7543,13 +7543,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
         <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -7574,7 +7574,7 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
         <v>311</v>
@@ -7683,7 +7683,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D7" t="s">
         <v>312</v>
@@ -7817,7 +7817,7 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>226</v>
@@ -7829,7 +7829,7 @@
         <v>323</v>
       </c>
       <c r="H9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -7843,7 +7843,7 @@
         <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
         <v>226</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
         <v>316</v>
@@ -7894,7 +7894,7 @@
         <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -7936,7 +7936,7 @@
         <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
         <v>226</v>
@@ -7950,13 +7950,13 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
         <v>316</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H18" t="s">
         <v>120</v>
@@ -8038,7 +8038,7 @@
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -8055,13 +8055,13 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D25" t="s">
         <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -8081,7 +8081,7 @@
         <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -8159,24 +8159,24 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>336</v>
+        <v>653</v>
       </c>
       <c r="D35" t="s">
         <v>263</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>654</v>
       </c>
       <c r="D36" t="s">
         <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -8305,15 +8305,15 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
         <v>316</v>
@@ -8322,10 +8322,10 @@
         <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -8463,7 +8463,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
         <v>226</v>
@@ -8494,7 +8494,7 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
         <v>226</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
         <v>316</v>
@@ -8520,7 +8520,7 @@
         <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="10824" windowHeight="6612" tabRatio="748" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="10824" windowHeight="6612" tabRatio="748" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="655">
   <si>
     <t>供应商名称</t>
   </si>
@@ -7368,10 +7368,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7457,99 +7457,99 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>652</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" t="s">
-        <v>69</v>
+      <c r="F6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>346</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>226</v>
       </c>
-      <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
         <v>323</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>335</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>342</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>226</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>323</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" t="s">
-        <v>339</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -7557,27 +7557,24 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>226</v>
-      </c>
-      <c r="F12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" t="s">
-        <v>311</v>
       </c>
       <c r="F13" t="s">
         <v>321</v>
@@ -7588,88 +7585,105 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>311</v>
+      </c>
+      <c r="F14" t="s">
+        <v>321</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
         <v>263</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>330</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>331</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7682,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Design/APM_DB_Model.xlsx
+++ b/Design/APM_DB_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="10824" windowHeight="6612" tabRatio="748" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="10824" windowHeight="6612" tabRatio="748" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="655">
   <si>
     <t>供应商名称</t>
   </si>
@@ -3563,7 +3563,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7368,10 +7368,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
@@ -7453,15 +7453,15 @@
         <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>652</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
         <v>218</v>
@@ -7471,99 +7471,99 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>652</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
         <v>218</v>
       </c>
-      <c r="H7" t="s">
-        <v>69</v>
+      <c r="F7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>346</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>226</v>
       </c>
-      <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
         <v>323</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>335</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>342</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>226</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>323</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" t="s">
-        <v>339</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
@@ -7571,27 +7571,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>240</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>226</v>
-      </c>
-      <c r="F13" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" t="s">
-        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>321</v>
@@ -7602,88 +7599,105 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>311</v>
+      </c>
+      <c r="F15" t="s">
+        <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
         <v>263</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>330</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>331</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7697,7 +7711,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8203,7 +8217,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8386,7 +8400,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
